--- a/JT.xlsx
+++ b/JT.xlsx
@@ -1,75 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DevOffice\Google Drive\JafrocR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/PyJafroc/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D403C9-7104-AE47-BC0F-738B31A90CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="480" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="19400" yWindow="8080" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{7057EA57-9FDF-894F-A8B2-5EE70FCCC0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP" sheetId="1" r:id="rId1"/>
-    <sheet name="FP" sheetId="2" r:id="rId2"/>
-    <sheet name="Truth" sheetId="3" r:id="rId3"/>
+    <sheet name="LL" sheetId="1" r:id="rId1"/>
+    <sheet name="NL" sheetId="2" r:id="rId2"/>
+    <sheet name="TRUTH" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
-    <t>Modality_ID</t>
+    <t>ReaderID</t>
   </si>
   <si>
-    <t>Case_ID</t>
+    <t>ModalityID</t>
   </si>
   <si>
-    <t>Lesion_ID</t>
+    <t>CaseID</t>
   </si>
   <si>
-    <t>TP_Rating</t>
+    <t>LesionID</t>
   </si>
   <si>
-    <t>Reader_ID</t>
+    <t>LLRating</t>
   </si>
   <si>
-    <t>FP_Rating</t>
-  </si>
-  <si>
-    <t>Case_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lesion_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>NLRating</t>
   </si>
   <si>
     <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,20 +92,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,44 +122,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -192,14 +186,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -226,6 +238,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -237,229 +267,170 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49533D-42F9-9346-B22D-ADB60CA5B0E6}">
   <dimension ref="A1:E845"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D722" sqref="D722"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E845"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -14811,36 +14782,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCF787-7608-7646-A357-4445F39BDA7C}">
   <dimension ref="A1:D738"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D738"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -25165,1190 +25129,1176 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B389C3-C5C0-0A42-A3DD-295991D23D81}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.83313091922005578</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.16756545961002783</v>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.66536825473991246</v>
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.33463174526008754</v>
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.8148596794235563</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.18514032057644364</v>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.28423228134424816</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.38606069582076685</v>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.32970702283498488</v>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>19</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>20</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>24</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>26</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>27</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>28</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>29</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.63615124228412134</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>29</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.36384875771587866</v>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>30</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>31</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>32</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>33</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.7195696337408084</v>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>33</v>
       </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.2804303662591916</v>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>34</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>35</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>36</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.54880469718295066</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>36</v>
       </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.45119530281704934</v>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>37</v>
       </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>38</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>39</v>
       </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.39761410986658507</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>39</v>
       </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.38261927061432011</v>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>39</v>
       </c>
-      <c r="B50" s="1">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.21976661951909479</v>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>40</v>
       </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.25614983728355645</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>40</v>
       </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.74321503131524003</v>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>41</v>
       </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>42</v>
       </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>43</v>
       </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.79651097565536078</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>43</v>
       </c>
-      <c r="B56" s="1">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.20348902434463934</v>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>44</v>
       </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>45</v>
       </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>46</v>
       </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>47</v>
       </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>48</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>49</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>50</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>51</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>0</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>52</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>53</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>54</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>55</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>56</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>57</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>58</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>59</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>60</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>61</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>62</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>63</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>64</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>65</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>66</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>67</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>68</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>69</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83">
         <v>70</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>71</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85">
         <v>72</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>73</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87">
         <v>74</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>75</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89">
         <v>76</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>77</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91">
         <v>78</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>79</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>80</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>81</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95">
         <v>82</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>83</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>84</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>0</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>85</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99">
         <v>86</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>87</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101">
         <v>88</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>0</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>89</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103">
         <v>90</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104">
         <v>91</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105">
         <v>92</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>0</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>